--- a/backend/fms_core/tests/valid_templates/Sample_metadata_v3_14_0.xlsx
+++ b/backend/fms_core/tests/valid_templates/Sample_metadata_v3_14_0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sballesteros/Documents/Freezeman/freezeman/backend/fms_core/tests/valid_templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4928CE64-130F-6840-8D01-45B3547D5153}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8578AAC-BA10-194F-8AF0-883E9C8F76CF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="15940" xr2:uid="{82938438-56AF-234A-A3B8-D78369EC91CE}"/>
   </bookViews>
@@ -61,9 +61,6 @@
     <t>Metadata</t>
   </si>
   <si>
-    <t xml:space="preserve">You can add custom properties under the 'Metadata' gray area. The name of the column would be stored as the name of the property.  </t>
-  </si>
-  <si>
     <t>SampleTestMetadata</t>
   </si>
   <si>
@@ -98,6 +95,9 @@
   </si>
   <si>
     <t>Metadata Name 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You can add custom properties under the 'Metadata' gray area. The name of the column would be stored as the name of the property. Please note that double underscore i.e '__' are not allowed when naming metadata fields.  </t>
   </si>
 </sst>
 </file>
@@ -602,7 +602,7 @@
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
       <c r="B5" s="3" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
@@ -641,13 +641,13 @@
         <v>7</v>
       </c>
       <c r="E8" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="5" t="s">
-        <v>23</v>
-      </c>
       <c r="G8" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
@@ -664,20 +664,20 @@
         <v>4</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="14" t="s">
+      <c r="G9" s="15" t="s">
         <v>16</v>
-      </c>
-      <c r="G9" s="15" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
@@ -685,18 +685,18 @@
         <v>4</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F10" s="14"/>
       <c r="G10" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
